--- a/Новый документ jhblhb.xlsx
+++ b/Новый документ jhblhb.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serov\Рабочий стол\For MF Github Work\MR-GREG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499173D3-A685-458E-B87E-0E0496F6B27B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Лист1" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>o;kj;kl;ljk</t>
   </si>
+  <si>
+    <t>;kjlkjnknkn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="XO Thames"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,29 +52,37 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -258,29 +279,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
-  </sheetPr>
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showZeros="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="16384" min="1" outlineLevel="0" style="0" width="10.7884703773945"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
+  <pageMargins left="0.79000002145767201" right="0.79000002145767201" top="0.79000002145767201" bottom="0.79000002145767201" header="0.19680555164814001" footer="0.19680555164814001"/>
 </worksheet>
 </file>